--- a/templates/Account Services.xlsx
+++ b/templates/Account Services.xlsx
@@ -20,14 +20,56 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Price override as a decimal, if you wish to charge a different amount for this service than the base rate.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>The reason for the price override.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Account ID</t>
   </si>
   <si>
     <t>Service ID</t>
   </si>
+  <si>
+    <t>Price Override</t>
+  </si>
+  <si>
+    <t>Price Override Reason</t>
+  </si>
 </sst>
 </file>
 
@@ -41,6 +83,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,9 +110,10 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +124,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,12 +167,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -203,25 +257,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
+      <xdr:colOff>729360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="8017560" cy="6263280"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="7902720" cy="6262920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -233,11 +287,22 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" spc="-1">
+            <a:rPr lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>This template allows you to import services onto accounts.</a:t>
@@ -264,7 +329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -283,16 +348,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,14 +370,21 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/Account Services.xlsx
+++ b/templates/Account Services.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -35,7 +35,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Price override as a decimal, if you wish to charge a different amount for this service than the base rate.</t>
+          <t xml:space="preserve">Price override as a decimal, if you wish to charge a different amount for this service than the base rate.</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,21 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>The reason for the price override.</t>
+          <t xml:space="preserve">The reason for the price override.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Defaults to 1 if not provided.
+</t>
         </r>
       </text>
     </comment>
@@ -57,18 +71,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Account ID</t>
+    <t xml:space="preserve">Account ID</t>
   </si>
   <si>
-    <t>Service ID</t>
+    <t xml:space="preserve">Service ID</t>
   </si>
   <si>
-    <t>Price Override</t>
+    <t xml:space="preserve">Price Override</t>
   </si>
   <si>
-    <t>Price Override Reason</t>
+    <t xml:space="preserve">Price Override Reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
   </si>
 </sst>
 </file>
@@ -76,7 +93,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -103,7 +120,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -263,9 +280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>729360</xdr:colOff>
+      <xdr:colOff>729000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -275,7 +292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27360" y="0"/>
-          <a:ext cx="7902720" cy="6262920"/>
+          <a:ext cx="7902360" cy="6262560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -297,7 +314,10 @@
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFill>
                 <a:solidFill>
                   <a:srgbClr val="ffffff"/>
@@ -307,7 +327,17 @@
             </a:rPr>
             <a:t>This template allows you to import services onto accounts.</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -323,18 +353,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -348,19 +378,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,11 +406,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/templates/Account Services.xlsx
+++ b/templates/Account Services.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Westlake\Repositories\importer\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93E25C-F40D-4F40-BEAF-6155F539D3CF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,13 +25,14 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Simon Westlake</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,11 +41,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Price override as a decimal, if you wish to charge a different amount for this service than the base rate.</t>
+          <t>Price override as a decimal, if you wish to charge a different amount for this service than the base rate.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -48,11 +54,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">The reason for the price override.</t>
+          <t>The reason for the price override.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -66,36 +72,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{D4E626B8-1A1A-4453-BF3A-D58D6135ED99}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Simon Westlake:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The next bill date for the service. Only valid for multi-month services. The 'day' part of the date entered here must be equal to the 'Bill Day' property on the account. Enter in YYYY-MM-DD format.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Account ID</t>
+    <t>Account ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Service ID</t>
+    <t>Service ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Override</t>
+    <t>Price Override</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Override Reason</t>
+    <t>Price Override Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Next Bill Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,34 +133,27 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,9 +172,15 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -159,53 +188,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -264,13 +260,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -284,9 +296,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -298,46 +316,42 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:uFill>
                 <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
+                  <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a:uFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>This template allows you to import services onto accounts.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -346,26 +360,467 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7507A36D-9958-4B94-94C8-34DE69910534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2118DAD-92A8-4ACD-8BD6-90FCDAA0EBFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C445FD-F02F-42C5-876C-3F8D6CDB9EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6350000" cy="6350000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
+    <col min="1" max="1025" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -374,26 +829,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.34"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,15 +863,18 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>